--- a/2025.04.04/asymptotics_test/asymptotics.xlsx
+++ b/2025.04.04/asymptotics_test/asymptotics.xlsx
@@ -5,17 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Coding\C\Homework\2025.04.04\asymptotic_test\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Coding\C\Homework\2025.04.04\asymptotics_test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{368E7736-BFEE-4A64-AA12-5B39A699B7E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B101739-B788-4DF7-B007-CE8CF1113F8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="18465" windowHeight="10996" activeTab="2" xr2:uid="{602412E5-BBC1-4300-9A07-341DAF98C709}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="18465" windowHeight="10996" xr2:uid="{602412E5-BBC1-4300-9A07-341DAF98C709}"/>
   </bookViews>
   <sheets>
     <sheet name="server" sheetId="1" r:id="rId1"/>
     <sheet name="msu_new" sheetId="2" r:id="rId2"/>
     <sheet name="msu_old" sheetId="3" r:id="rId3"/>
+    <sheet name="skk_server_new" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,6 +34,39 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="2">
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -54,7 +88,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -118,22 +152,87 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -144,6 +243,1928 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>server!$A$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>y</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>server!$B$18:$Q$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>server!$B$19:$Q$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>0.78</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.07</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>26.56</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>64.23</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>125.04</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>218.34</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>341.54</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>511.43</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>728.62</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1007.83</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1330.51</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1718.64</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2181.13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2731.38</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3362.89</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4111.37</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-87B1-4182-BE2A-EE3F0FACF427}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1154113008"/>
+        <c:axId val="1154107184"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1154113008"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1154107184"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1154107184"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1154113008"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>skk_server_new!$A$21</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>y</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>skk_server_new!$B$20:$R$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>skk_server_new!$B$21:$R$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.19</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>26.85</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>36.93</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>83.18</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>624.99</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>965.58</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1749.55</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1703.81</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4866.72</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4517.1899999999996</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7278.23</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>7473.18</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>10796.17</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>11861.95</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16715.060000000001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16075.11</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4DC7-48A8-BB29-A97BE97BFE07}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1156220544"/>
+        <c:axId val="1156224704"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1156220544"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1156224704"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1156224704"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1156220544"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>631031</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>14287</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>21431</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>42862</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Диаграмма 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C5B71285-B0DB-42D1-8E89-EB697636FF79}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>635933</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>155201</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>8404</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>29695</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Диаграмма 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C98E48DF-A497-4378-AA9D-156A6CA81120}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -443,10 +2464,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2E86447-B7F8-4FD3-B41E-D9E0BF5B64A2}">
-  <dimension ref="A1:Q17"/>
+  <dimension ref="A1:Q19"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="Q9" sqref="Q9"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -722,8 +2743,131 @@
         <v>4111.37</v>
       </c>
     </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B18">
+        <v>1000</v>
+      </c>
+      <c r="C18">
+        <v>2000</v>
+      </c>
+      <c r="D18">
+        <v>3000</v>
+      </c>
+      <c r="E18">
+        <v>4000</v>
+      </c>
+      <c r="F18">
+        <v>5000</v>
+      </c>
+      <c r="G18">
+        <v>6000</v>
+      </c>
+      <c r="H18">
+        <v>7000</v>
+      </c>
+      <c r="I18">
+        <v>8000</v>
+      </c>
+      <c r="J18">
+        <v>9000</v>
+      </c>
+      <c r="K18">
+        <v>10000</v>
+      </c>
+      <c r="L18">
+        <v>11000</v>
+      </c>
+      <c r="M18">
+        <v>12000</v>
+      </c>
+      <c r="N18">
+        <v>13000</v>
+      </c>
+      <c r="O18">
+        <v>14000</v>
+      </c>
+      <c r="P18">
+        <v>15000</v>
+      </c>
+      <c r="Q18">
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A19" t="s">
+        <v>1</v>
+      </c>
+      <c r="B19" cm="1">
+        <f t="array" ref="B19">INDEX($A$1:$Q$17, COLUMN(), COLUMN())</f>
+        <v>0.78</v>
+      </c>
+      <c r="C19" cm="1">
+        <f t="array" ref="C19">INDEX($A$1:$Q$17, COLUMN(), COLUMN())</f>
+        <v>8.07</v>
+      </c>
+      <c r="D19" cm="1">
+        <f t="array" ref="D19">INDEX($A$1:$Q$17, COLUMN(), COLUMN())</f>
+        <v>26.56</v>
+      </c>
+      <c r="E19" cm="1">
+        <f t="array" ref="E19">INDEX($A$1:$Q$17, COLUMN(), COLUMN())</f>
+        <v>64.23</v>
+      </c>
+      <c r="F19" cm="1">
+        <f t="array" ref="F19">INDEX($A$1:$Q$17, COLUMN(), COLUMN())</f>
+        <v>125.04</v>
+      </c>
+      <c r="G19" cm="1">
+        <f t="array" ref="G19">INDEX($A$1:$Q$17, COLUMN(), COLUMN())</f>
+        <v>218.34</v>
+      </c>
+      <c r="H19" cm="1">
+        <f t="array" ref="H19">INDEX($A$1:$Q$17, COLUMN(), COLUMN())</f>
+        <v>341.54</v>
+      </c>
+      <c r="I19" cm="1">
+        <f t="array" ref="I19">INDEX($A$1:$Q$17, COLUMN(), COLUMN())</f>
+        <v>511.43</v>
+      </c>
+      <c r="J19" cm="1">
+        <f t="array" ref="J19">INDEX($A$1:$Q$17, COLUMN(), COLUMN())</f>
+        <v>728.62</v>
+      </c>
+      <c r="K19" cm="1">
+        <f t="array" ref="K19">INDEX($A$1:$Q$17, COLUMN(), COLUMN())</f>
+        <v>1007.83</v>
+      </c>
+      <c r="L19" cm="1">
+        <f t="array" ref="L19">INDEX($A$1:$Q$17, COLUMN(), COLUMN())</f>
+        <v>1330.51</v>
+      </c>
+      <c r="M19" cm="1">
+        <f t="array" ref="M19">INDEX($A$1:$Q$17, COLUMN(), COLUMN())</f>
+        <v>1718.64</v>
+      </c>
+      <c r="N19" cm="1">
+        <f t="array" ref="N19">INDEX($A$1:$Q$17, COLUMN(), COLUMN())</f>
+        <v>2181.13</v>
+      </c>
+      <c r="O19" cm="1">
+        <f t="array" ref="O19">INDEX($A$1:$Q$17, COLUMN(), COLUMN())</f>
+        <v>2731.38</v>
+      </c>
+      <c r="P19" cm="1">
+        <f t="array" ref="P19">INDEX($A$1:$Q$17, COLUMN(), COLUMN())</f>
+        <v>3362.89</v>
+      </c>
+      <c r="Q19" cm="1">
+        <f t="array" ref="Q19">INDEX($A$1:$Q$17, COLUMN(), COLUMN())</f>
+        <v>4111.37</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -774,8 +2918,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E1BBE6E-B4ED-44DE-9448-D0E839A85C57}">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -811,4 +2955,893 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{826EDC66-DCA6-4AE1-88D5-1A8CEF02A118}">
+  <dimension ref="A1:R21"/>
+  <sheetViews>
+    <sheetView topLeftCell="A18" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="1" spans="1:18" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B1">
+        <v>1000</v>
+      </c>
+      <c r="C1">
+        <v>2000</v>
+      </c>
+      <c r="D1">
+        <v>3000</v>
+      </c>
+      <c r="E1">
+        <v>4000</v>
+      </c>
+      <c r="F1">
+        <v>5000</v>
+      </c>
+      <c r="G1">
+        <v>6000</v>
+      </c>
+      <c r="H1">
+        <v>7000</v>
+      </c>
+      <c r="I1">
+        <v>8000</v>
+      </c>
+      <c r="J1">
+        <v>9000</v>
+      </c>
+      <c r="K1">
+        <v>10000</v>
+      </c>
+      <c r="L1">
+        <v>11000</v>
+      </c>
+      <c r="M1">
+        <v>12000</v>
+      </c>
+      <c r="N1">
+        <v>13000</v>
+      </c>
+      <c r="O1">
+        <v>14000</v>
+      </c>
+      <c r="P1">
+        <v>15000</v>
+      </c>
+      <c r="Q1">
+        <v>16000</v>
+      </c>
+      <c r="R1">
+        <v>17000</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A2">
+        <v>1000</v>
+      </c>
+      <c r="B2" s="6">
+        <v>0.4</v>
+      </c>
+      <c r="C2" s="3" cm="1">
+        <f t="array" ref="C2">IF(COLUMN()&gt;ROW(), INDEX($A$1:$R$18, COLUMN(), COLUMN()) / INDEX($A$1:$R$18, ROW(), ROW()))</f>
+        <v>15.475</v>
+      </c>
+      <c r="D2" cm="1">
+        <f t="array" ref="D2">IF(COLUMN()&gt;ROW(), INDEX($A$1:$R$18, COLUMN(), COLUMN()) / INDEX($A$1:$R$18, ROW(), ROW()))</f>
+        <v>67.125</v>
+      </c>
+      <c r="E2" cm="1">
+        <f t="array" ref="E2">IF(COLUMN()&gt;ROW(), INDEX($A$1:$R$18, COLUMN(), COLUMN()) / INDEX($A$1:$R$18, ROW(), ROW()))</f>
+        <v>92.324999999999989</v>
+      </c>
+      <c r="F2" cm="1">
+        <f t="array" ref="F2">IF(COLUMN()&gt;ROW(), INDEX($A$1:$R$18, COLUMN(), COLUMN()) / INDEX($A$1:$R$18, ROW(), ROW()))</f>
+        <v>207.95000000000002</v>
+      </c>
+      <c r="G2" cm="1">
+        <f t="array" ref="G2">IF(COLUMN()&gt;ROW(), INDEX($A$1:$R$18, COLUMN(), COLUMN()) / INDEX($A$1:$R$18, ROW(), ROW()))</f>
+        <v>1562.4749999999999</v>
+      </c>
+      <c r="H2" cm="1">
+        <f t="array" ref="H2">IF(COLUMN()&gt;ROW(), INDEX($A$1:$R$18, COLUMN(), COLUMN()) / INDEX($A$1:$R$18, ROW(), ROW()))</f>
+        <v>2413.9499999999998</v>
+      </c>
+      <c r="I2" cm="1">
+        <f t="array" ref="I2">IF(COLUMN()&gt;ROW(), INDEX($A$1:$R$18, COLUMN(), COLUMN()) / INDEX($A$1:$R$18, ROW(), ROW()))</f>
+        <v>4373.875</v>
+      </c>
+      <c r="J2" cm="1">
+        <f t="array" ref="J2">IF(COLUMN()&gt;ROW(), INDEX($A$1:$R$18, COLUMN(), COLUMN()) / INDEX($A$1:$R$18, ROW(), ROW()))</f>
+        <v>4259.5249999999996</v>
+      </c>
+      <c r="K2" cm="1">
+        <f t="array" ref="K2">IF(COLUMN()&gt;ROW(), INDEX($A$1:$R$18, COLUMN(), COLUMN()) / INDEX($A$1:$R$18, ROW(), ROW()))</f>
+        <v>12166.8</v>
+      </c>
+      <c r="L2" cm="1">
+        <f t="array" ref="L2">IF(COLUMN()&gt;ROW(), INDEX($A$1:$R$18, COLUMN(), COLUMN()) / INDEX($A$1:$R$18, ROW(), ROW()))</f>
+        <v>11292.974999999999</v>
+      </c>
+      <c r="M2" cm="1">
+        <f t="array" ref="M2">IF(COLUMN()&gt;ROW(), INDEX($A$1:$R$18, COLUMN(), COLUMN()) / INDEX($A$1:$R$18, ROW(), ROW()))</f>
+        <v>18195.574999999997</v>
+      </c>
+      <c r="N2" cm="1">
+        <f t="array" ref="N2">IF(COLUMN()&gt;ROW(), INDEX($A$1:$R$18, COLUMN(), COLUMN()) / INDEX($A$1:$R$18, ROW(), ROW()))</f>
+        <v>18682.95</v>
+      </c>
+      <c r="O2" cm="1">
+        <f t="array" ref="O2">IF(COLUMN()&gt;ROW(), INDEX($A$1:$R$18, COLUMN(), COLUMN()) / INDEX($A$1:$R$18, ROW(), ROW()))</f>
+        <v>26990.424999999999</v>
+      </c>
+      <c r="P2" cm="1">
+        <f t="array" ref="P2">IF(COLUMN()&gt;ROW(), INDEX($A$1:$R$18, COLUMN(), COLUMN()) / INDEX($A$1:$R$18, ROW(), ROW()))</f>
+        <v>29654.875</v>
+      </c>
+      <c r="Q2" cm="1">
+        <f t="array" ref="Q2">IF(COLUMN()&gt;ROW(), INDEX($A$1:$R$18, COLUMN(), COLUMN()) / INDEX($A$1:$R$18, ROW(), ROW()))</f>
+        <v>41787.65</v>
+      </c>
+      <c r="R2" cm="1">
+        <f t="array" ref="R2">IF(COLUMN()&gt;ROW(), INDEX($A$1:$R$18, COLUMN(), COLUMN()) / INDEX($A$1:$R$18, ROW(), ROW()))</f>
+        <v>40187.775000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A3">
+        <v>2000</v>
+      </c>
+      <c r="C3" s="7">
+        <v>6.19</v>
+      </c>
+      <c r="D3" cm="1">
+        <f t="array" ref="D3">IF(COLUMN()&gt;ROW(), INDEX($A$1:$R$18, COLUMN(), COLUMN()) / INDEX($A$1:$R$18, ROW(), ROW()))</f>
+        <v>4.3376413570274632</v>
+      </c>
+      <c r="E3" s="3" cm="1">
+        <f t="array" ref="E3">IF(COLUMN()&gt;ROW(), INDEX($A$1:$R$18, COLUMN(), COLUMN()) / INDEX($A$1:$R$18, ROW(), ROW()))</f>
+        <v>5.9660743134087237</v>
+      </c>
+      <c r="F3" cm="1">
+        <f t="array" ref="F3">IF(COLUMN()&gt;ROW(), INDEX($A$1:$R$18, COLUMN(), COLUMN()) / INDEX($A$1:$R$18, ROW(), ROW()))</f>
+        <v>13.437802907915994</v>
+      </c>
+      <c r="G3" cm="1">
+        <f t="array" ref="G3">IF(COLUMN()&gt;ROW(), INDEX($A$1:$R$18, COLUMN(), COLUMN()) / INDEX($A$1:$R$18, ROW(), ROW()))</f>
+        <v>100.96768982229402</v>
+      </c>
+      <c r="H3" cm="1">
+        <f t="array" ref="H3">IF(COLUMN()&gt;ROW(), INDEX($A$1:$R$18, COLUMN(), COLUMN()) / INDEX($A$1:$R$18, ROW(), ROW()))</f>
+        <v>155.99030694668821</v>
+      </c>
+      <c r="I3" cm="1">
+        <f t="array" ref="I3">IF(COLUMN()&gt;ROW(), INDEX($A$1:$R$18, COLUMN(), COLUMN()) / INDEX($A$1:$R$18, ROW(), ROW()))</f>
+        <v>282.64135702746364</v>
+      </c>
+      <c r="J3" cm="1">
+        <f t="array" ref="J3">IF(COLUMN()&gt;ROW(), INDEX($A$1:$R$18, COLUMN(), COLUMN()) / INDEX($A$1:$R$18, ROW(), ROW()))</f>
+        <v>275.25201938610661</v>
+      </c>
+      <c r="K3" cm="1">
+        <f t="array" ref="K3">IF(COLUMN()&gt;ROW(), INDEX($A$1:$R$18, COLUMN(), COLUMN()) / INDEX($A$1:$R$18, ROW(), ROW()))</f>
+        <v>786.2229402261712</v>
+      </c>
+      <c r="L3" cm="1">
+        <f t="array" ref="L3">IF(COLUMN()&gt;ROW(), INDEX($A$1:$R$18, COLUMN(), COLUMN()) / INDEX($A$1:$R$18, ROW(), ROW()))</f>
+        <v>729.75605815831977</v>
+      </c>
+      <c r="M3" cm="1">
+        <f t="array" ref="M3">IF(COLUMN()&gt;ROW(), INDEX($A$1:$R$18, COLUMN(), COLUMN()) / INDEX($A$1:$R$18, ROW(), ROW()))</f>
+        <v>1175.8045234248787</v>
+      </c>
+      <c r="N3" cm="1">
+        <f t="array" ref="N3">IF(COLUMN()&gt;ROW(), INDEX($A$1:$R$18, COLUMN(), COLUMN()) / INDEX($A$1:$R$18, ROW(), ROW()))</f>
+        <v>1207.2988691437802</v>
+      </c>
+      <c r="O3" cm="1">
+        <f t="array" ref="O3">IF(COLUMN()&gt;ROW(), INDEX($A$1:$R$18, COLUMN(), COLUMN()) / INDEX($A$1:$R$18, ROW(), ROW()))</f>
+        <v>1744.1308562197091</v>
+      </c>
+      <c r="P3" cm="1">
+        <f t="array" ref="P3">IF(COLUMN()&gt;ROW(), INDEX($A$1:$R$18, COLUMN(), COLUMN()) / INDEX($A$1:$R$18, ROW(), ROW()))</f>
+        <v>1916.308562197092</v>
+      </c>
+      <c r="Q3" cm="1">
+        <f t="array" ref="Q3">IF(COLUMN()&gt;ROW(), INDEX($A$1:$R$18, COLUMN(), COLUMN()) / INDEX($A$1:$R$18, ROW(), ROW()))</f>
+        <v>2700.3327948303718</v>
+      </c>
+      <c r="R3" cm="1">
+        <f t="array" ref="R3">IF(COLUMN()&gt;ROW(), INDEX($A$1:$R$18, COLUMN(), COLUMN()) / INDEX($A$1:$R$18, ROW(), ROW()))</f>
+        <v>2596.9483037156706</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A4">
+        <v>3000</v>
+      </c>
+      <c r="D4" s="1">
+        <v>26.85</v>
+      </c>
+      <c r="E4" cm="1">
+        <f t="array" ref="E4">IF(COLUMN()&gt;ROW(), INDEX($A$1:$R$18, COLUMN(), COLUMN()) / INDEX($A$1:$R$18, ROW(), ROW()))</f>
+        <v>1.3754189944134076</v>
+      </c>
+      <c r="F4" cm="1">
+        <f t="array" ref="F4">IF(COLUMN()&gt;ROW(), INDEX($A$1:$R$18, COLUMN(), COLUMN()) / INDEX($A$1:$R$18, ROW(), ROW()))</f>
+        <v>3.0979515828677839</v>
+      </c>
+      <c r="G4" s="3" cm="1">
+        <f t="array" ref="G4">IF(COLUMN()&gt;ROW(), INDEX($A$1:$R$18, COLUMN(), COLUMN()) / INDEX($A$1:$R$18, ROW(), ROW()))</f>
+        <v>23.277094972067037</v>
+      </c>
+      <c r="H4" cm="1">
+        <f t="array" ref="H4">IF(COLUMN()&gt;ROW(), INDEX($A$1:$R$18, COLUMN(), COLUMN()) / INDEX($A$1:$R$18, ROW(), ROW()))</f>
+        <v>35.962011173184358</v>
+      </c>
+      <c r="I4" cm="1">
+        <f t="array" ref="I4">IF(COLUMN()&gt;ROW(), INDEX($A$1:$R$18, COLUMN(), COLUMN()) / INDEX($A$1:$R$18, ROW(), ROW()))</f>
+        <v>65.160148975791429</v>
+      </c>
+      <c r="J4" cm="1">
+        <f t="array" ref="J4">IF(COLUMN()&gt;ROW(), INDEX($A$1:$R$18, COLUMN(), COLUMN()) / INDEX($A$1:$R$18, ROW(), ROW()))</f>
+        <v>63.456610800744876</v>
+      </c>
+      <c r="K4" cm="1">
+        <f t="array" ref="K4">IF(COLUMN()&gt;ROW(), INDEX($A$1:$R$18, COLUMN(), COLUMN()) / INDEX($A$1:$R$18, ROW(), ROW()))</f>
+        <v>181.25586592178772</v>
+      </c>
+      <c r="L4" cm="1">
+        <f t="array" ref="L4">IF(COLUMN()&gt;ROW(), INDEX($A$1:$R$18, COLUMN(), COLUMN()) / INDEX($A$1:$R$18, ROW(), ROW()))</f>
+        <v>168.23798882681561</v>
+      </c>
+      <c r="M4" cm="1">
+        <f t="array" ref="M4">IF(COLUMN()&gt;ROW(), INDEX($A$1:$R$18, COLUMN(), COLUMN()) / INDEX($A$1:$R$18, ROW(), ROW()))</f>
+        <v>271.07001862197387</v>
+      </c>
+      <c r="N4" cm="1">
+        <f t="array" ref="N4">IF(COLUMN()&gt;ROW(), INDEX($A$1:$R$18, COLUMN(), COLUMN()) / INDEX($A$1:$R$18, ROW(), ROW()))</f>
+        <v>278.33072625698321</v>
+      </c>
+      <c r="O4" cm="1">
+        <f t="array" ref="O4">IF(COLUMN()&gt;ROW(), INDEX($A$1:$R$18, COLUMN(), COLUMN()) / INDEX($A$1:$R$18, ROW(), ROW()))</f>
+        <v>402.09199255121041</v>
+      </c>
+      <c r="P4" cm="1">
+        <f t="array" ref="P4">IF(COLUMN()&gt;ROW(), INDEX($A$1:$R$18, COLUMN(), COLUMN()) / INDEX($A$1:$R$18, ROW(), ROW()))</f>
+        <v>441.78584729981378</v>
+      </c>
+      <c r="Q4" cm="1">
+        <f t="array" ref="Q4">IF(COLUMN()&gt;ROW(), INDEX($A$1:$R$18, COLUMN(), COLUMN()) / INDEX($A$1:$R$18, ROW(), ROW()))</f>
+        <v>622.53482309124774</v>
+      </c>
+      <c r="R4" cm="1">
+        <f t="array" ref="R4">IF(COLUMN()&gt;ROW(), INDEX($A$1:$R$18, COLUMN(), COLUMN()) / INDEX($A$1:$R$18, ROW(), ROW()))</f>
+        <v>598.7005586592179</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A5">
+        <v>4000</v>
+      </c>
+      <c r="E5" s="1">
+        <v>36.93</v>
+      </c>
+      <c r="F5" cm="1">
+        <f t="array" ref="F5">IF(COLUMN()&gt;ROW(), INDEX($A$1:$R$18, COLUMN(), COLUMN()) / INDEX($A$1:$R$18, ROW(), ROW()))</f>
+        <v>2.2523693474140267</v>
+      </c>
+      <c r="G5" cm="1">
+        <f t="array" ref="G5">IF(COLUMN()&gt;ROW(), INDEX($A$1:$R$18, COLUMN(), COLUMN()) / INDEX($A$1:$R$18, ROW(), ROW()))</f>
+        <v>16.923639317627945</v>
+      </c>
+      <c r="H5" cm="1">
+        <f t="array" ref="H5">IF(COLUMN()&gt;ROW(), INDEX($A$1:$R$18, COLUMN(), COLUMN()) / INDEX($A$1:$R$18, ROW(), ROW()))</f>
+        <v>26.14622258326564</v>
+      </c>
+      <c r="I5" s="3" cm="1">
+        <f t="array" ref="I5">IF(COLUMN()&gt;ROW(), INDEX($A$1:$R$18, COLUMN(), COLUMN()) / INDEX($A$1:$R$18, ROW(), ROW()))</f>
+        <v>47.374763065258598</v>
+      </c>
+      <c r="J5" cm="1">
+        <f t="array" ref="J5">IF(COLUMN()&gt;ROW(), INDEX($A$1:$R$18, COLUMN(), COLUMN()) / INDEX($A$1:$R$18, ROW(), ROW()))</f>
+        <v>46.136203628486321</v>
+      </c>
+      <c r="K5" cm="1">
+        <f t="array" ref="K5">IF(COLUMN()&gt;ROW(), INDEX($A$1:$R$18, COLUMN(), COLUMN()) / INDEX($A$1:$R$18, ROW(), ROW()))</f>
+        <v>131.78229082047116</v>
+      </c>
+      <c r="L5" cm="1">
+        <f t="array" ref="L5">IF(COLUMN()&gt;ROW(), INDEX($A$1:$R$18, COLUMN(), COLUMN()) / INDEX($A$1:$R$18, ROW(), ROW()))</f>
+        <v>122.31762794476035</v>
+      </c>
+      <c r="M5" cm="1">
+        <f t="array" ref="M5">IF(COLUMN()&gt;ROW(), INDEX($A$1:$R$18, COLUMN(), COLUMN()) / INDEX($A$1:$R$18, ROW(), ROW()))</f>
+        <v>197.0817763336041</v>
+      </c>
+      <c r="N5" cm="1">
+        <f t="array" ref="N5">IF(COLUMN()&gt;ROW(), INDEX($A$1:$R$18, COLUMN(), COLUMN()) / INDEX($A$1:$R$18, ROW(), ROW()))</f>
+        <v>202.36068237205524</v>
+      </c>
+      <c r="O5" cm="1">
+        <f t="array" ref="O5">IF(COLUMN()&gt;ROW(), INDEX($A$1:$R$18, COLUMN(), COLUMN()) / INDEX($A$1:$R$18, ROW(), ROW()))</f>
+        <v>292.34145681018146</v>
+      </c>
+      <c r="P5" cm="1">
+        <f t="array" ref="P5">IF(COLUMN()&gt;ROW(), INDEX($A$1:$R$18, COLUMN(), COLUMN()) / INDEX($A$1:$R$18, ROW(), ROW()))</f>
+        <v>321.20092066070947</v>
+      </c>
+      <c r="Q5" cm="1">
+        <f t="array" ref="Q5">IF(COLUMN()&gt;ROW(), INDEX($A$1:$R$18, COLUMN(), COLUMN()) / INDEX($A$1:$R$18, ROW(), ROW()))</f>
+        <v>452.61467641483893</v>
+      </c>
+      <c r="R5" cm="1">
+        <f t="array" ref="R5">IF(COLUMN()&gt;ROW(), INDEX($A$1:$R$18, COLUMN(), COLUMN()) / INDEX($A$1:$R$18, ROW(), ROW()))</f>
+        <v>435.2859463850528</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A6">
+        <v>5000</v>
+      </c>
+      <c r="F6">
+        <v>83.18</v>
+      </c>
+      <c r="G6" cm="1">
+        <f t="array" ref="G6">IF(COLUMN()&gt;ROW(), INDEX($A$1:$R$18, COLUMN(), COLUMN()) / INDEX($A$1:$R$18, ROW(), ROW()))</f>
+        <v>7.5137052176003838</v>
+      </c>
+      <c r="H6" cm="1">
+        <f t="array" ref="H6">IF(COLUMN()&gt;ROW(), INDEX($A$1:$R$18, COLUMN(), COLUMN()) / INDEX($A$1:$R$18, ROW(), ROW()))</f>
+        <v>11.608319307525846</v>
+      </c>
+      <c r="I6" cm="1">
+        <f t="array" ref="I6">IF(COLUMN()&gt;ROW(), INDEX($A$1:$R$18, COLUMN(), COLUMN()) / INDEX($A$1:$R$18, ROW(), ROW()))</f>
+        <v>21.033301274344794</v>
+      </c>
+      <c r="J6" cm="1">
+        <f t="array" ref="J6">IF(COLUMN()&gt;ROW(), INDEX($A$1:$R$18, COLUMN(), COLUMN()) / INDEX($A$1:$R$18, ROW(), ROW()))</f>
+        <v>20.483409473431109</v>
+      </c>
+      <c r="K6" s="3" cm="1">
+        <f t="array" ref="K6">IF(COLUMN()&gt;ROW(), INDEX($A$1:$R$18, COLUMN(), COLUMN()) / INDEX($A$1:$R$18, ROW(), ROW()))</f>
+        <v>58.508295263284438</v>
+      </c>
+      <c r="L6" cm="1">
+        <f t="array" ref="L6">IF(COLUMN()&gt;ROW(), INDEX($A$1:$R$18, COLUMN(), COLUMN()) / INDEX($A$1:$R$18, ROW(), ROW()))</f>
+        <v>54.306203414282272</v>
+      </c>
+      <c r="M6" cm="1">
+        <f t="array" ref="M6">IF(COLUMN()&gt;ROW(), INDEX($A$1:$R$18, COLUMN(), COLUMN()) / INDEX($A$1:$R$18, ROW(), ROW()))</f>
+        <v>87.499759557585946</v>
+      </c>
+      <c r="N6" cm="1">
+        <f t="array" ref="N6">IF(COLUMN()&gt;ROW(), INDEX($A$1:$R$18, COLUMN(), COLUMN()) / INDEX($A$1:$R$18, ROW(), ROW()))</f>
+        <v>89.843471988458759</v>
+      </c>
+      <c r="O6" cm="1">
+        <f t="array" ref="O6">IF(COLUMN()&gt;ROW(), INDEX($A$1:$R$18, COLUMN(), COLUMN()) / INDEX($A$1:$R$18, ROW(), ROW()))</f>
+        <v>129.79285886030294</v>
+      </c>
+      <c r="P6" cm="1">
+        <f t="array" ref="P6">IF(COLUMN()&gt;ROW(), INDEX($A$1:$R$18, COLUMN(), COLUMN()) / INDEX($A$1:$R$18, ROW(), ROW()))</f>
+        <v>142.6057946621784</v>
+      </c>
+      <c r="Q6" cm="1">
+        <f t="array" ref="Q6">IF(COLUMN()&gt;ROW(), INDEX($A$1:$R$18, COLUMN(), COLUMN()) / INDEX($A$1:$R$18, ROW(), ROW()))</f>
+        <v>200.95046886270737</v>
+      </c>
+      <c r="R6" cm="1">
+        <f t="array" ref="R6">IF(COLUMN()&gt;ROW(), INDEX($A$1:$R$18, COLUMN(), COLUMN()) / INDEX($A$1:$R$18, ROW(), ROW()))</f>
+        <v>193.25691271940369</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A7">
+        <v>6000</v>
+      </c>
+      <c r="G7">
+        <v>624.99</v>
+      </c>
+      <c r="H7" cm="1">
+        <f t="array" ref="H7">IF(COLUMN()&gt;ROW(), INDEX($A$1:$R$18, COLUMN(), COLUMN()) / INDEX($A$1:$R$18, ROW(), ROW()))</f>
+        <v>1.544952719243508</v>
+      </c>
+      <c r="I7" cm="1">
+        <f t="array" ref="I7">IF(COLUMN()&gt;ROW(), INDEX($A$1:$R$18, COLUMN(), COLUMN()) / INDEX($A$1:$R$18, ROW(), ROW()))</f>
+        <v>2.7993247891966271</v>
+      </c>
+      <c r="J7" cm="1">
+        <f t="array" ref="J7">IF(COLUMN()&gt;ROW(), INDEX($A$1:$R$18, COLUMN(), COLUMN()) / INDEX($A$1:$R$18, ROW(), ROW()))</f>
+        <v>2.7261396182338915</v>
+      </c>
+      <c r="K7" cm="1">
+        <f t="array" ref="K7">IF(COLUMN()&gt;ROW(), INDEX($A$1:$R$18, COLUMN(), COLUMN()) / INDEX($A$1:$R$18, ROW(), ROW()))</f>
+        <v>7.7868765900254404</v>
+      </c>
+      <c r="L7" cm="1">
+        <f t="array" ref="L7">IF(COLUMN()&gt;ROW(), INDEX($A$1:$R$18, COLUMN(), COLUMN()) / INDEX($A$1:$R$18, ROW(), ROW()))</f>
+        <v>7.22761964191427</v>
+      </c>
+      <c r="M7" s="3" cm="1">
+        <f t="array" ref="M7">IF(COLUMN()&gt;ROW(), INDEX($A$1:$R$18, COLUMN(), COLUMN()) / INDEX($A$1:$R$18, ROW(), ROW()))</f>
+        <v>11.64535432566921</v>
+      </c>
+      <c r="N7" cm="1">
+        <f t="array" ref="N7">IF(COLUMN()&gt;ROW(), INDEX($A$1:$R$18, COLUMN(), COLUMN()) / INDEX($A$1:$R$18, ROW(), ROW()))</f>
+        <v>11.957279316469064</v>
+      </c>
+      <c r="O7" cm="1">
+        <f t="array" ref="O7">IF(COLUMN()&gt;ROW(), INDEX($A$1:$R$18, COLUMN(), COLUMN()) / INDEX($A$1:$R$18, ROW(), ROW()))</f>
+        <v>17.274148386374183</v>
+      </c>
+      <c r="P7" cm="1">
+        <f t="array" ref="P7">IF(COLUMN()&gt;ROW(), INDEX($A$1:$R$18, COLUMN(), COLUMN()) / INDEX($A$1:$R$18, ROW(), ROW()))</f>
+        <v>18.979423670778733</v>
+      </c>
+      <c r="Q7" cm="1">
+        <f t="array" ref="Q7">IF(COLUMN()&gt;ROW(), INDEX($A$1:$R$18, COLUMN(), COLUMN()) / INDEX($A$1:$R$18, ROW(), ROW()))</f>
+        <v>26.744523912382601</v>
+      </c>
+      <c r="R7" cm="1">
+        <f t="array" ref="R7">IF(COLUMN()&gt;ROW(), INDEX($A$1:$R$18, COLUMN(), COLUMN()) / INDEX($A$1:$R$18, ROW(), ROW()))</f>
+        <v>25.720587529400472</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A8">
+        <v>7000</v>
+      </c>
+      <c r="H8">
+        <v>965.58</v>
+      </c>
+      <c r="I8" cm="1">
+        <f t="array" ref="I8">IF(COLUMN()&gt;ROW(), INDEX($A$1:$R$18, COLUMN(), COLUMN()) / INDEX($A$1:$R$18, ROW(), ROW()))</f>
+        <v>1.811916154021417</v>
+      </c>
+      <c r="J8" cm="1">
+        <f t="array" ref="J8">IF(COLUMN()&gt;ROW(), INDEX($A$1:$R$18, COLUMN(), COLUMN()) / INDEX($A$1:$R$18, ROW(), ROW()))</f>
+        <v>1.7645456616748481</v>
+      </c>
+      <c r="K8" cm="1">
+        <f t="array" ref="K8">IF(COLUMN()&gt;ROW(), INDEX($A$1:$R$18, COLUMN(), COLUMN()) / INDEX($A$1:$R$18, ROW(), ROW()))</f>
+        <v>5.0402038153234328</v>
+      </c>
+      <c r="L8" cm="1">
+        <f t="array" ref="L8">IF(COLUMN()&gt;ROW(), INDEX($A$1:$R$18, COLUMN(), COLUMN()) / INDEX($A$1:$R$18, ROW(), ROW()))</f>
+        <v>4.6782141303672402</v>
+      </c>
+      <c r="M8" cm="1">
+        <f t="array" ref="M8">IF(COLUMN()&gt;ROW(), INDEX($A$1:$R$18, COLUMN(), COLUMN()) / INDEX($A$1:$R$18, ROW(), ROW()))</f>
+        <v>7.5376768367198981</v>
+      </c>
+      <c r="N8" cm="1">
+        <f t="array" ref="N8">IF(COLUMN()&gt;ROW(), INDEX($A$1:$R$18, COLUMN(), COLUMN()) / INDEX($A$1:$R$18, ROW(), ROW()))</f>
+        <v>7.739576213260424</v>
+      </c>
+      <c r="O8" s="3" cm="1">
+        <f t="array" ref="O8">IF(COLUMN()&gt;ROW(), INDEX($A$1:$R$18, COLUMN(), COLUMN()) / INDEX($A$1:$R$18, ROW(), ROW()))</f>
+        <v>11.181020733652312</v>
+      </c>
+      <c r="P8" cm="1">
+        <f t="array" ref="P8">IF(COLUMN()&gt;ROW(), INDEX($A$1:$R$18, COLUMN(), COLUMN()) / INDEX($A$1:$R$18, ROW(), ROW()))</f>
+        <v>12.284792559912177</v>
+      </c>
+      <c r="Q8" cm="1">
+        <f t="array" ref="Q8">IF(COLUMN()&gt;ROW(), INDEX($A$1:$R$18, COLUMN(), COLUMN()) / INDEX($A$1:$R$18, ROW(), ROW()))</f>
+        <v>17.310901219992129</v>
+      </c>
+      <c r="R8" cm="1">
+        <f t="array" ref="R8">IF(COLUMN()&gt;ROW(), INDEX($A$1:$R$18, COLUMN(), COLUMN()) / INDEX($A$1:$R$18, ROW(), ROW()))</f>
+        <v>16.648138942397317</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A9">
+        <v>8000</v>
+      </c>
+      <c r="I9">
+        <v>1749.55</v>
+      </c>
+      <c r="J9" cm="1">
+        <f t="array" ref="J9">IF(COLUMN()&gt;ROW(), INDEX($A$1:$R$18, COLUMN(), COLUMN()) / INDEX($A$1:$R$18, ROW(), ROW()))</f>
+        <v>0.97385613443456887</v>
+      </c>
+      <c r="K9" cm="1">
+        <f t="array" ref="K9">IF(COLUMN()&gt;ROW(), INDEX($A$1:$R$18, COLUMN(), COLUMN()) / INDEX($A$1:$R$18, ROW(), ROW()))</f>
+        <v>2.7816981509531025</v>
+      </c>
+      <c r="L9" cm="1">
+        <f t="array" ref="L9">IF(COLUMN()&gt;ROW(), INDEX($A$1:$R$18, COLUMN(), COLUMN()) / INDEX($A$1:$R$18, ROW(), ROW()))</f>
+        <v>2.5819153496613412</v>
+      </c>
+      <c r="M9" cm="1">
+        <f t="array" ref="M9">IF(COLUMN()&gt;ROW(), INDEX($A$1:$R$18, COLUMN(), COLUMN()) / INDEX($A$1:$R$18, ROW(), ROW()))</f>
+        <v>4.160058300705896</v>
+      </c>
+      <c r="N9" cm="1">
+        <f t="array" ref="N9">IF(COLUMN()&gt;ROW(), INDEX($A$1:$R$18, COLUMN(), COLUMN()) / INDEX($A$1:$R$18, ROW(), ROW()))</f>
+        <v>4.2714869537881173</v>
+      </c>
+      <c r="O9" cm="1">
+        <f t="array" ref="O9">IF(COLUMN()&gt;ROW(), INDEX($A$1:$R$18, COLUMN(), COLUMN()) / INDEX($A$1:$R$18, ROW(), ROW()))</f>
+        <v>6.1708267840301794</v>
+      </c>
+      <c r="P9" cm="1">
+        <f t="array" ref="P9">IF(COLUMN()&gt;ROW(), INDEX($A$1:$R$18, COLUMN(), COLUMN()) / INDEX($A$1:$R$18, ROW(), ROW()))</f>
+        <v>6.7800005715755489</v>
+      </c>
+      <c r="Q9" s="3" cm="1">
+        <f t="array" ref="Q9">IF(COLUMN()&gt;ROW(), INDEX($A$1:$R$18, COLUMN(), COLUMN()) / INDEX($A$1:$R$18, ROW(), ROW()))</f>
+        <v>9.5539195793203984</v>
+      </c>
+      <c r="R9" cm="1">
+        <f t="array" ref="R9">IF(COLUMN()&gt;ROW(), INDEX($A$1:$R$18, COLUMN(), COLUMN()) / INDEX($A$1:$R$18, ROW(), ROW()))</f>
+        <v>9.1881398073790415</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A10">
+        <v>9000</v>
+      </c>
+      <c r="J10">
+        <v>1703.81</v>
+      </c>
+      <c r="K10" cm="1">
+        <f t="array" ref="K10">IF(COLUMN()&gt;ROW(), INDEX($A$1:$R$18, COLUMN(), COLUMN()) / INDEX($A$1:$R$18, ROW(), ROW()))</f>
+        <v>2.8563748305268781</v>
+      </c>
+      <c r="L10" cm="1">
+        <f t="array" ref="L10">IF(COLUMN()&gt;ROW(), INDEX($A$1:$R$18, COLUMN(), COLUMN()) / INDEX($A$1:$R$18, ROW(), ROW()))</f>
+        <v>2.6512287168170157</v>
+      </c>
+      <c r="M10" cm="1">
+        <f t="array" ref="M10">IF(COLUMN()&gt;ROW(), INDEX($A$1:$R$18, COLUMN(), COLUMN()) / INDEX($A$1:$R$18, ROW(), ROW()))</f>
+        <v>4.271738045908875</v>
+      </c>
+      <c r="N10" cm="1">
+        <f t="array" ref="N10">IF(COLUMN()&gt;ROW(), INDEX($A$1:$R$18, COLUMN(), COLUMN()) / INDEX($A$1:$R$18, ROW(), ROW()))</f>
+        <v>4.3861580810066849</v>
+      </c>
+      <c r="O10" cm="1">
+        <f t="array" ref="O10">IF(COLUMN()&gt;ROW(), INDEX($A$1:$R$18, COLUMN(), COLUMN()) / INDEX($A$1:$R$18, ROW(), ROW()))</f>
+        <v>6.33648704961234</v>
+      </c>
+      <c r="P10" cm="1">
+        <f t="array" ref="P10">IF(COLUMN()&gt;ROW(), INDEX($A$1:$R$18, COLUMN(), COLUMN()) / INDEX($A$1:$R$18, ROW(), ROW()))</f>
+        <v>6.9620145438751981</v>
+      </c>
+      <c r="Q10" cm="1">
+        <f t="array" ref="Q10">IF(COLUMN()&gt;ROW(), INDEX($A$1:$R$18, COLUMN(), COLUMN()) / INDEX($A$1:$R$18, ROW(), ROW()))</f>
+        <v>9.8104013945216906</v>
+      </c>
+      <c r="R10" cm="1">
+        <f t="array" ref="R10">IF(COLUMN()&gt;ROW(), INDEX($A$1:$R$18, COLUMN(), COLUMN()) / INDEX($A$1:$R$18, ROW(), ROW()))</f>
+        <v>9.4348020025707093</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A11">
+        <v>10000</v>
+      </c>
+      <c r="K11">
+        <v>4866.72</v>
+      </c>
+      <c r="L11" cm="1">
+        <f t="array" ref="L11">IF(COLUMN()&gt;ROW(), INDEX($A$1:$R$18, COLUMN(), COLUMN()) / INDEX($A$1:$R$18, ROW(), ROW()))</f>
+        <v>0.9281795541966662</v>
+      </c>
+      <c r="M11" cm="1">
+        <f t="array" ref="M11">IF(COLUMN()&gt;ROW(), INDEX($A$1:$R$18, COLUMN(), COLUMN()) / INDEX($A$1:$R$18, ROW(), ROW()))</f>
+        <v>1.4955103231745404</v>
+      </c>
+      <c r="N11" cm="1">
+        <f t="array" ref="N11">IF(COLUMN()&gt;ROW(), INDEX($A$1:$R$18, COLUMN(), COLUMN()) / INDEX($A$1:$R$18, ROW(), ROW()))</f>
+        <v>1.5355681033632509</v>
+      </c>
+      <c r="O11" cm="1">
+        <f t="array" ref="O11">IF(COLUMN()&gt;ROW(), INDEX($A$1:$R$18, COLUMN(), COLUMN()) / INDEX($A$1:$R$18, ROW(), ROW()))</f>
+        <v>2.2183667850215341</v>
+      </c>
+      <c r="P11" cm="1">
+        <f t="array" ref="P11">IF(COLUMN()&gt;ROW(), INDEX($A$1:$R$18, COLUMN(), COLUMN()) / INDEX($A$1:$R$18, ROW(), ROW()))</f>
+        <v>2.4373602755038299</v>
+      </c>
+      <c r="Q11" cm="1">
+        <f t="array" ref="Q11">IF(COLUMN()&gt;ROW(), INDEX($A$1:$R$18, COLUMN(), COLUMN()) / INDEX($A$1:$R$18, ROW(), ROW()))</f>
+        <v>3.4345637308084296</v>
+      </c>
+      <c r="R11" cm="1">
+        <f t="array" ref="R11">IF(COLUMN()&gt;ROW(), INDEX($A$1:$R$18, COLUMN(), COLUMN()) / INDEX($A$1:$R$18, ROW(), ROW()))</f>
+        <v>3.3030685965085316</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A12">
+        <v>11000</v>
+      </c>
+      <c r="L12">
+        <v>4517.1899999999996</v>
+      </c>
+      <c r="M12" cm="1">
+        <f t="array" ref="M12">IF(COLUMN()&gt;ROW(), INDEX($A$1:$R$18, COLUMN(), COLUMN()) / INDEX($A$1:$R$18, ROW(), ROW()))</f>
+        <v>1.6112295475727167</v>
+      </c>
+      <c r="N12" cm="1">
+        <f t="array" ref="N12">IF(COLUMN()&gt;ROW(), INDEX($A$1:$R$18, COLUMN(), COLUMN()) / INDEX($A$1:$R$18, ROW(), ROW()))</f>
+        <v>1.6543869086755263</v>
+      </c>
+      <c r="O12" cm="1">
+        <f t="array" ref="O12">IF(COLUMN()&gt;ROW(), INDEX($A$1:$R$18, COLUMN(), COLUMN()) / INDEX($A$1:$R$18, ROW(), ROW()))</f>
+        <v>2.3900190162468262</v>
+      </c>
+      <c r="P12" cm="1">
+        <f t="array" ref="P12">IF(COLUMN()&gt;ROW(), INDEX($A$1:$R$18, COLUMN(), COLUMN()) / INDEX($A$1:$R$18, ROW(), ROW()))</f>
+        <v>2.6259577303589183</v>
+      </c>
+      <c r="Q12" cm="1">
+        <f t="array" ref="Q12">IF(COLUMN()&gt;ROW(), INDEX($A$1:$R$18, COLUMN(), COLUMN()) / INDEX($A$1:$R$18, ROW(), ROW()))</f>
+        <v>3.7003225456533824</v>
+      </c>
+      <c r="R12" cm="1">
+        <f t="array" ref="R12">IF(COLUMN()&gt;ROW(), INDEX($A$1:$R$18, COLUMN(), COLUMN()) / INDEX($A$1:$R$18, ROW(), ROW()))</f>
+        <v>3.5586526136824004</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A13">
+        <v>12000</v>
+      </c>
+      <c r="M13">
+        <v>7278.23</v>
+      </c>
+      <c r="N13" cm="1">
+        <f t="array" ref="N13">IF(COLUMN()&gt;ROW(), INDEX($A$1:$R$18, COLUMN(), COLUMN()) / INDEX($A$1:$R$18, ROW(), ROW()))</f>
+        <v>1.0267853585281037</v>
+      </c>
+      <c r="O13" cm="1">
+        <f t="array" ref="O13">IF(COLUMN()&gt;ROW(), INDEX($A$1:$R$18, COLUMN(), COLUMN()) / INDEX($A$1:$R$18, ROW(), ROW()))</f>
+        <v>1.4833510345235037</v>
+      </c>
+      <c r="P13" cm="1">
+        <f t="array" ref="P13">IF(COLUMN()&gt;ROW(), INDEX($A$1:$R$18, COLUMN(), COLUMN()) / INDEX($A$1:$R$18, ROW(), ROW()))</f>
+        <v>1.6297849889327489</v>
+      </c>
+      <c r="Q13" cm="1">
+        <f t="array" ref="Q13">IF(COLUMN()&gt;ROW(), INDEX($A$1:$R$18, COLUMN(), COLUMN()) / INDEX($A$1:$R$18, ROW(), ROW()))</f>
+        <v>2.2965830978136172</v>
+      </c>
+      <c r="R13" cm="1">
+        <f t="array" ref="R13">IF(COLUMN()&gt;ROW(), INDEX($A$1:$R$18, COLUMN(), COLUMN()) / INDEX($A$1:$R$18, ROW(), ROW()))</f>
+        <v>2.2086565002754792</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A14">
+        <v>13000</v>
+      </c>
+      <c r="N14">
+        <v>7473.18</v>
+      </c>
+      <c r="O14" cm="1">
+        <f t="array" ref="O14">IF(COLUMN()&gt;ROW(), INDEX($A$1:$R$18, COLUMN(), COLUMN()) / INDEX($A$1:$R$18, ROW(), ROW()))</f>
+        <v>1.4446554211192557</v>
+      </c>
+      <c r="P14" cm="1">
+        <f t="array" ref="P14">IF(COLUMN()&gt;ROW(), INDEX($A$1:$R$18, COLUMN(), COLUMN()) / INDEX($A$1:$R$18, ROW(), ROW()))</f>
+        <v>1.587269408738984</v>
+      </c>
+      <c r="Q14" cm="1">
+        <f t="array" ref="Q14">IF(COLUMN()&gt;ROW(), INDEX($A$1:$R$18, COLUMN(), COLUMN()) / INDEX($A$1:$R$18, ROW(), ROW()))</f>
+        <v>2.2366730093480958</v>
+      </c>
+      <c r="R14" cm="1">
+        <f t="array" ref="R14">IF(COLUMN()&gt;ROW(), INDEX($A$1:$R$18, COLUMN(), COLUMN()) / INDEX($A$1:$R$18, ROW(), ROW()))</f>
+        <v>2.1510401194672149</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A15">
+        <v>14000</v>
+      </c>
+      <c r="O15">
+        <v>10796.17</v>
+      </c>
+      <c r="P15" cm="1">
+        <f t="array" ref="P15">IF(COLUMN()&gt;ROW(), INDEX($A$1:$R$18, COLUMN(), COLUMN()) / INDEX($A$1:$R$18, ROW(), ROW()))</f>
+        <v>1.0987183417823172</v>
+      </c>
+      <c r="Q15" cm="1">
+        <f t="array" ref="Q15">IF(COLUMN()&gt;ROW(), INDEX($A$1:$R$18, COLUMN(), COLUMN()) / INDEX($A$1:$R$18, ROW(), ROW()))</f>
+        <v>1.5482397924449134</v>
+      </c>
+      <c r="R15" cm="1">
+        <f t="array" ref="R15">IF(COLUMN()&gt;ROW(), INDEX($A$1:$R$18, COLUMN(), COLUMN()) / INDEX($A$1:$R$18, ROW(), ROW()))</f>
+        <v>1.4889641419132897</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A16">
+        <v>15000</v>
+      </c>
+      <c r="P16">
+        <v>11861.95</v>
+      </c>
+      <c r="Q16" cm="1">
+        <f t="array" ref="Q16">IF(COLUMN()&gt;ROW(), INDEX($A$1:$R$18, COLUMN(), COLUMN()) / INDEX($A$1:$R$18, ROW(), ROW()))</f>
+        <v>1.4091325625213393</v>
+      </c>
+      <c r="R16" cm="1">
+        <f t="array" ref="R16">IF(COLUMN()&gt;ROW(), INDEX($A$1:$R$18, COLUMN(), COLUMN()) / INDEX($A$1:$R$18, ROW(), ROW()))</f>
+        <v>1.3551827481990735</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A17">
+        <v>16000</v>
+      </c>
+      <c r="Q17">
+        <v>16715.060000000001</v>
+      </c>
+      <c r="R17" cm="1">
+        <f t="array" ref="R17">IF(COLUMN()&gt;ROW(), INDEX($A$1:$R$18, COLUMN(), COLUMN()) / INDEX($A$1:$R$18, ROW(), ROW()))</f>
+        <v>0.96171416674543786</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A18">
+        <v>17000</v>
+      </c>
+      <c r="R18">
+        <v>16075.11</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B20">
+        <v>1000</v>
+      </c>
+      <c r="C20">
+        <v>2000</v>
+      </c>
+      <c r="D20">
+        <v>3000</v>
+      </c>
+      <c r="E20">
+        <v>4000</v>
+      </c>
+      <c r="F20">
+        <v>5000</v>
+      </c>
+      <c r="G20">
+        <v>6000</v>
+      </c>
+      <c r="H20">
+        <v>7000</v>
+      </c>
+      <c r="I20">
+        <v>8000</v>
+      </c>
+      <c r="J20">
+        <v>9000</v>
+      </c>
+      <c r="K20">
+        <v>10000</v>
+      </c>
+      <c r="L20">
+        <v>11000</v>
+      </c>
+      <c r="M20">
+        <v>12000</v>
+      </c>
+      <c r="N20">
+        <v>13000</v>
+      </c>
+      <c r="O20">
+        <v>14000</v>
+      </c>
+      <c r="P20">
+        <v>15000</v>
+      </c>
+      <c r="Q20">
+        <v>16000</v>
+      </c>
+      <c r="R20">
+        <v>17000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A21" t="s">
+        <v>1</v>
+      </c>
+      <c r="B21" cm="1">
+        <f t="array" ref="B21">INDEX($A$1:$R$18, COLUMN(), COLUMN())</f>
+        <v>0.4</v>
+      </c>
+      <c r="C21" cm="1">
+        <f t="array" ref="C21">INDEX($A$1:$R$18, COLUMN(), COLUMN())</f>
+        <v>6.19</v>
+      </c>
+      <c r="D21" cm="1">
+        <f t="array" ref="D21">INDEX($A$1:$R$18, COLUMN(), COLUMN())</f>
+        <v>26.85</v>
+      </c>
+      <c r="E21" cm="1">
+        <f t="array" ref="E21">INDEX($A$1:$R$18, COLUMN(), COLUMN())</f>
+        <v>36.93</v>
+      </c>
+      <c r="F21" cm="1">
+        <f t="array" ref="F21">INDEX($A$1:$R$18, COLUMN(), COLUMN())</f>
+        <v>83.18</v>
+      </c>
+      <c r="G21" cm="1">
+        <f t="array" ref="G21">INDEX($A$1:$R$18, COLUMN(), COLUMN())</f>
+        <v>624.99</v>
+      </c>
+      <c r="H21" cm="1">
+        <f t="array" ref="H21">INDEX($A$1:$R$18, COLUMN(), COLUMN())</f>
+        <v>965.58</v>
+      </c>
+      <c r="I21" cm="1">
+        <f t="array" ref="I21">INDEX($A$1:$R$18, COLUMN(), COLUMN())</f>
+        <v>1749.55</v>
+      </c>
+      <c r="J21" cm="1">
+        <f t="array" ref="J21">INDEX($A$1:$R$18, COLUMN(), COLUMN())</f>
+        <v>1703.81</v>
+      </c>
+      <c r="K21" cm="1">
+        <f t="array" ref="K21">INDEX($A$1:$R$18, COLUMN(), COLUMN())</f>
+        <v>4866.72</v>
+      </c>
+      <c r="L21" cm="1">
+        <f t="array" ref="L21">INDEX($A$1:$R$18, COLUMN(), COLUMN())</f>
+        <v>4517.1899999999996</v>
+      </c>
+      <c r="M21" cm="1">
+        <f t="array" ref="M21">INDEX($A$1:$R$18, COLUMN(), COLUMN())</f>
+        <v>7278.23</v>
+      </c>
+      <c r="N21" cm="1">
+        <f t="array" ref="N21">INDEX($A$1:$R$18, COLUMN(), COLUMN())</f>
+        <v>7473.18</v>
+      </c>
+      <c r="O21" cm="1">
+        <f t="array" ref="O21">INDEX($A$1:$R$18, COLUMN(), COLUMN())</f>
+        <v>10796.17</v>
+      </c>
+      <c r="P21" cm="1">
+        <f t="array" ref="P21">INDEX($A$1:$R$18, COLUMN(), COLUMN())</f>
+        <v>11861.95</v>
+      </c>
+      <c r="Q21" cm="1">
+        <f t="array" ref="Q21">INDEX($A$1:$R$18, COLUMN(), COLUMN())</f>
+        <v>16715.060000000001</v>
+      </c>
+      <c r="R21" cm="1">
+        <f t="array" ref="R21">INDEX($A$1:$R$18, COLUMN(), COLUMN())</f>
+        <v>16075.11</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="E5">
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>ROW()=COLUMN()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2:R18">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>ROW()=COLUMN()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>